--- a/IBVindice_atualizada.xlsx
+++ b/IBVindice_atualizada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t318769.TRIBUNAL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t318769.TRIBUNAL\Documents\GitHub\r-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -48,7 +48,7 @@
     <t>Cotacao</t>
   </si>
   <si>
-    <t>Enc Ajust</t>
+    <t>Outra Var</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
